--- a/thresholds/IGCSE/computer-science-9-1/computer-science-9-1-thresholds.xlsx
+++ b/thresholds/IGCSE/computer-science-9-1/computer-science-9-1-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -536,6 +541,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>computer-science-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -578,6 +588,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>computer-science-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,6 +635,11 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>computer-science-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -662,6 +682,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>computer-science-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -704,6 +729,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>computer-science-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -746,6 +776,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>computer-science-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -788,6 +823,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>computer-science-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -830,6 +870,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>computer-science-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -872,6 +917,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>computer-science-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -914,6 +964,7 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/IGCSE/computer-science-9-1/computer-science-9-1-thresholds.xlsx
+++ b/thresholds/IGCSE/computer-science-9-1/computer-science-9-1-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -507,43 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C2" t="n">
+        <v>110</v>
+      </c>
+      <c r="D2" t="n">
         <v>96</v>
       </c>
-      <c r="D2" t="n">
-        <v>84</v>
-      </c>
       <c r="E2" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F2" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G2" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
         <v>24</v>
       </c>
-      <c r="K2" t="n">
-        <v>16</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>June 2022</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>computer-science-9-1</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
@@ -554,144 +546,135 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C3" t="n">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F3" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G3" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I3" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" t="n">
-        <v>21</v>
-      </c>
-      <c r="K3" t="n">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>June 2022</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>computer-science-9-1</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G4" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" t="n">
         <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>November 2022</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>computer-science-9-1</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>150</v>
       </c>
       <c r="C5" t="n">
+        <v>126</v>
+      </c>
+      <c r="D5" t="n">
         <v>110</v>
       </c>
-      <c r="D5" t="n">
-        <v>96</v>
-      </c>
       <c r="E5" t="n">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F5" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G5" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H5" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" t="n">
-        <v>24</v>
-      </c>
-      <c r="K5" t="n">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>computer-science-9-1</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -701,84 +684,78 @@
         <v>120</v>
       </c>
       <c r="D6" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E6" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G6" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="n">
         <v>40</v>
       </c>
-      <c r="I6" t="n">
-        <v>31</v>
-      </c>
       <c r="J6" t="n">
-        <v>23</v>
-      </c>
-      <c r="K6" t="n">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>computer-science-9-1</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D7" t="n">
+        <v>114</v>
+      </c>
+      <c r="E7" t="n">
         <v>100</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>84</v>
       </c>
-      <c r="F7" t="n">
-        <v>68</v>
-      </c>
       <c r="G7" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H7" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I7" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J7" t="n">
-        <v>23</v>
-      </c>
-      <c r="K7" t="n">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>computer-science-9-1</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
@@ -792,179 +769,39 @@
         <v>150</v>
       </c>
       <c r="C8" t="n">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F8" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H8" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I8" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
-      </c>
-      <c r="K8" t="n">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>computer-science-9-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>AX 11,21</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>150</v>
-      </c>
-      <c r="C9" t="n">
-        <v>120</v>
-      </c>
-      <c r="D9" t="n">
-        <v>107</v>
-      </c>
-      <c r="E9" t="n">
-        <v>94</v>
-      </c>
-      <c r="F9" t="n">
-        <v>79</v>
-      </c>
-      <c r="G9" t="n">
-        <v>64</v>
-      </c>
-      <c r="H9" t="n">
-        <v>50</v>
-      </c>
-      <c r="I9" t="n">
-        <v>40</v>
-      </c>
-      <c r="J9" t="n">
-        <v>30</v>
-      </c>
-      <c r="K9" t="n">
-        <v>21</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>computer-science-9-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>AY 12,22</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>150</v>
-      </c>
-      <c r="C10" t="n">
-        <v>129</v>
-      </c>
-      <c r="D10" t="n">
-        <v>114</v>
-      </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" t="n">
-        <v>84</v>
-      </c>
-      <c r="G10" t="n">
-        <v>69</v>
-      </c>
-      <c r="H10" t="n">
-        <v>54</v>
-      </c>
-      <c r="I10" t="n">
-        <v>45</v>
-      </c>
-      <c r="J10" t="n">
-        <v>37</v>
-      </c>
-      <c r="K10" t="n">
-        <v>29</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>computer-science-9-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>AY 12,22</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>150</v>
-      </c>
-      <c r="C11" t="n">
-        <v>112</v>
-      </c>
-      <c r="D11" t="n">
-        <v>100</v>
-      </c>
-      <c r="E11" t="n">
-        <v>88</v>
-      </c>
-      <c r="F11" t="n">
-        <v>75</v>
-      </c>
-      <c r="G11" t="n">
-        <v>63</v>
-      </c>
-      <c r="H11" t="n">
-        <v>51</v>
-      </c>
-      <c r="I11" t="n">
-        <v>39</v>
-      </c>
-      <c r="J11" t="n">
-        <v>27</v>
-      </c>
-      <c r="K11" t="n">
-        <v>15</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
           <t>November 2024</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/IGCSE/computer-science-9-1/computer-science-9-1-thresholds.xlsx
+++ b/thresholds/IGCSE/computer-science-9-1/computer-science-9-1-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,28 +502,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C2" t="n">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D2" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F2" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G2" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
         <v>24</v>
@@ -535,7 +535,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
@@ -546,135 +546,135 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C3" t="n">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D3" t="n">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F3" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H3" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I3" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C4" t="n">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F4" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G4" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
         <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>150</v>
       </c>
       <c r="C5" t="n">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D5" t="n">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E5" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F5" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G5" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H5" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I5" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -684,78 +684,78 @@
         <v>120</v>
       </c>
       <c r="D6" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E6" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F6" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G6" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D7" t="n">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F7" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G7" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H7" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I7" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J7" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
@@ -769,35 +769,167 @@
         <v>150</v>
       </c>
       <c r="C8" t="n">
+        <v>126</v>
+      </c>
+      <c r="D8" t="n">
+        <v>110</v>
+      </c>
+      <c r="E8" t="n">
+        <v>95</v>
+      </c>
+      <c r="F8" t="n">
+        <v>78</v>
+      </c>
+      <c r="G8" t="n">
+        <v>61</v>
+      </c>
+      <c r="H8" t="n">
+        <v>45</v>
+      </c>
+      <c r="I8" t="n">
+        <v>35</v>
+      </c>
+      <c r="J8" t="n">
+        <v>25</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>AX 11,21</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>150</v>
+      </c>
+      <c r="C9" t="n">
+        <v>120</v>
+      </c>
+      <c r="D9" t="n">
+        <v>107</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94</v>
+      </c>
+      <c r="F9" t="n">
+        <v>79</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+      <c r="H9" t="n">
+        <v>50</v>
+      </c>
+      <c r="I9" t="n">
+        <v>40</v>
+      </c>
+      <c r="J9" t="n">
+        <v>30</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,22</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" t="n">
+        <v>129</v>
+      </c>
+      <c r="D10" t="n">
+        <v>114</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>84</v>
+      </c>
+      <c r="G10" t="n">
+        <v>69</v>
+      </c>
+      <c r="H10" t="n">
+        <v>54</v>
+      </c>
+      <c r="I10" t="n">
+        <v>45</v>
+      </c>
+      <c r="J10" t="n">
+        <v>37</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,22</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>150</v>
+      </c>
+      <c r="C11" t="n">
         <v>112</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D11" t="n">
         <v>100</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E11" t="n">
         <v>88</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F11" t="n">
         <v>75</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G11" t="n">
         <v>63</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H11" t="n">
         <v>51</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I11" t="n">
         <v>39</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J11" t="n">
         <v>27</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
